--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.04218852472755</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1163169378313</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1914838983165055</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04816801108677993</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.719495726336703</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.065375597876255</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.211539939732532</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.013482465625344</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2745638909142798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9042012057023214</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1025930688674066</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1657579960888143</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04471194443660309</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.605940531567029</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.019653879335948</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.155197194690231</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8762022125393116</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2426662565796391</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8204490601519296</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.09422354346085626</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1501689234758743</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04265135778828721</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.538739911631382</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9929685581275862</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.122217224491905</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7927849906431277</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2234369078580158</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7865338545190355</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.09082356593462748</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1438616435671918</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04182608665551868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.511941438698997</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9824209915027211</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.10915667895766</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7589804697248042</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2156816327123892</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.7809143726551042</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.09025954483365695</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1428168815354951</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04168989426943526</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.50752564004695</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9806887022538575</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.107010124076552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7533777852944183</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.214398515222527</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.819990837742921</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.09417765160961267</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1500836859004977</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0426401707470756</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.538376185256979</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9928250144365052</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.122039584982993</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7923283664985945</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2233320012223174</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.994389827658523</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1115708323487183</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1825665904389666</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04696297101327396</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.679788363317527</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.049308890708176</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.191761024906512</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9659476223726529</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.263486313620902</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.345586509634018</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1463116915168996</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2482288473632366</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05597732311293058</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.979464318356236</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.172168584568254</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.342614951223169</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.314870309880092</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3454776526029661</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.611489015371689</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1724993666147014</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2981593883594655</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.06300322725608609</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.216846638590823</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.271452895442906</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.464065053108158</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.578714169784064</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4083440867526065</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.73472778610585</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1846264235011574</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3213619569879853</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06630554122034127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.329459598997062</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.31898584652069</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.522116707494106</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.700949551113155</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4376738614655409</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.781774479172668</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1892559018854314</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3302296179833917</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0675730085222277</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.372850362783453</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.337363607331611</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.544548320913336</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.747608388092374</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4489001719102816</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.771624411772052</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1882570953613936</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3283160027934429</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06729925429118566</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.363470792288723</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.333388174473157</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.539696539896028</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.737542173381684</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4464768111742785</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.738590441454988</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1850065080958245</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3220898072301139</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.06640946655861057</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.333013923153175</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.320489990366696</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.523952899517226</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.70478044474936</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4385949679881236</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.718407125457901</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1830204800942425</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3182870234120259</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.06586670624699664</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.314458006482369</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.312639894300418</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.514369331611107</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.684762912012502</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4337831648416</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.603485181809106</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1717116783073891</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.2966538041861071</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0627896904107601</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.209586988822878</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.268397280634019</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.460331447296269</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.570774705902835</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.406443250342619</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.533602709422183</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1648333067104488</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2835152762178268</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.06093038809181195</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.14649239350328</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.241887933449192</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.427930014461765</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.501449069582605</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3898683852344078</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.493619259224658</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1608967826945644</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2760036397452552</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.05987085258072611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.110632196505662</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.226860889023982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.409554453289061</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.461779482991062</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3804028628894685</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.480116327651615</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1595671476478771</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2734677891703825</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05951376126484575</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.09856207789872</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.221809765307029</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.403376294747162</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.448381669966551</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3772092406967431</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.54101961500848</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1655634343787398</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2849091302237809</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.06112727914714711</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.153163838556026</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.244686824840954</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.431351885646436</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.508807351086602</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3916256793122983</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.748282603685055</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1859602193604957</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.323916290481165</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.06667034449653997</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.341938889693211</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.324267920997841</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.528564624321831</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.714392842254938</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4409066828141164</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.88597675205358</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1995111800456328</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3498898397602943</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.07039277007326916</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.469710407211153</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.37850266800973</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.594738767191458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.850945622969334</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4738205608078374</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.812263915946232</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1922562910330612</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3359793967180309</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.06839631956968617</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.401085009367023</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.349339652996605</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.559162534785017</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.777845438951118</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4561840161597672</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.537665834916368</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.165233288247137</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2842788392078432</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06103823554056831</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.150146395633556</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.243420783728624</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.429804074735344</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.505480094595328</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3908310096796583</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.249371331538583</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1368185367237089</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2302070693255018</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05347375964758072</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.895649407541981</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.137475798266024</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.30009596002256</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.219343734814601</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3228856080187796</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.04218852472755</v>
+        <v>0.6760459807522068</v>
       </c>
       <c r="C2">
-        <v>0.1163169378313</v>
+        <v>0.04534877463177622</v>
       </c>
       <c r="D2">
-        <v>0.1914838983165055</v>
+        <v>0.07731689401843767</v>
       </c>
       <c r="E2">
-        <v>0.04816801108677993</v>
+        <v>0.0732749881279311</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.719495726336703</v>
+        <v>1.894647154833962</v>
       </c>
       <c r="H2">
-        <v>1.065375597876255</v>
+        <v>1.60146435362293</v>
       </c>
       <c r="I2">
-        <v>1.211539939732532</v>
+        <v>1.620913480237576</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.013482465625344</v>
+        <v>0.4845422245924169</v>
       </c>
       <c r="L2">
-        <v>0.2745638909142798</v>
+        <v>0.2312971062732743</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9042012057023214</v>
+        <v>0.6439311036247659</v>
       </c>
       <c r="C3">
-        <v>0.1025930688674066</v>
+        <v>0.04108333566638578</v>
       </c>
       <c r="D3">
-        <v>0.1657579960888143</v>
+        <v>0.07030685591355734</v>
       </c>
       <c r="E3">
-        <v>0.04471194443660309</v>
+        <v>0.07274797538192601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.605940531567029</v>
+        <v>1.870016963092127</v>
       </c>
       <c r="H3">
-        <v>1.019653879335948</v>
+        <v>1.594765022415061</v>
       </c>
       <c r="I3">
-        <v>1.155197194690231</v>
+        <v>1.610676766033947</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8762022125393116</v>
+        <v>0.4502970264005342</v>
       </c>
       <c r="L3">
-        <v>0.2426662565796391</v>
+        <v>0.2241474590385053</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8204490601519296</v>
+        <v>0.6246485635563488</v>
       </c>
       <c r="C4">
-        <v>0.09422354346085626</v>
+        <v>0.03844225338323781</v>
       </c>
       <c r="D4">
-        <v>0.1501689234758743</v>
+        <v>0.06604034181640372</v>
       </c>
       <c r="E4">
-        <v>0.04265135778828721</v>
+        <v>0.07245582459248823</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.538739911631382</v>
+        <v>1.855709928715683</v>
       </c>
       <c r="H4">
-        <v>0.9929685581275862</v>
+        <v>1.591216746434839</v>
       </c>
       <c r="I4">
-        <v>1.122217224491905</v>
+        <v>1.604982087081858</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7927849906431277</v>
+        <v>0.4295675579041358</v>
       </c>
       <c r="L4">
-        <v>0.2234369078580158</v>
+        <v>0.2198931589426536</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7865338545190355</v>
+        <v>0.6169006118445282</v>
       </c>
       <c r="C5">
-        <v>0.09082356593462748</v>
+        <v>0.0373603768850046</v>
       </c>
       <c r="D5">
-        <v>0.1438616435671918</v>
+        <v>0.06431111496596031</v>
       </c>
       <c r="E5">
-        <v>0.04182608665551868</v>
+        <v>0.07234468338711508</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.511941438698997</v>
+        <v>1.850084425235394</v>
       </c>
       <c r="H5">
-        <v>0.9824209915027211</v>
+        <v>1.589912810683771</v>
       </c>
       <c r="I5">
-        <v>1.10915667895766</v>
+        <v>1.602809793981827</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7589804697248042</v>
+        <v>0.4211948879605245</v>
       </c>
       <c r="L5">
-        <v>0.2156816327123892</v>
+        <v>0.2181935788248097</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7809143726551042</v>
+        <v>0.6156207096815365</v>
       </c>
       <c r="C6">
-        <v>0.09025954483365695</v>
+        <v>0.03718039128574446</v>
       </c>
       <c r="D6">
-        <v>0.1428168815354951</v>
+        <v>0.06402454484491216</v>
       </c>
       <c r="E6">
-        <v>0.04168989426943526</v>
+        <v>0.0723267066007196</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.50752564004695</v>
+        <v>1.84916266638254</v>
       </c>
       <c r="H6">
-        <v>0.9806887022538575</v>
+        <v>1.589704867843679</v>
       </c>
       <c r="I6">
-        <v>1.107010124076552</v>
+        <v>1.602458039535549</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7533777852944183</v>
+        <v>0.4198091283202245</v>
       </c>
       <c r="L6">
-        <v>0.214398515222527</v>
+        <v>0.2179134227684045</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.819990837742921</v>
+        <v>0.62454362699836</v>
       </c>
       <c r="C7">
-        <v>0.09417765160961267</v>
+        <v>0.03842768562932974</v>
       </c>
       <c r="D7">
-        <v>0.1500836859004977</v>
+        <v>0.06601698282905488</v>
       </c>
       <c r="E7">
-        <v>0.0426401707470756</v>
+        <v>0.07245429365523037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.538376185256979</v>
+        <v>1.855633232885424</v>
       </c>
       <c r="H7">
-        <v>0.9928250144365052</v>
+        <v>1.591198586218979</v>
       </c>
       <c r="I7">
-        <v>1.122039584982993</v>
+        <v>1.604952190451606</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7923283664985945</v>
+        <v>0.4294543384328904</v>
       </c>
       <c r="L7">
-        <v>0.2233320012223174</v>
+        <v>0.2198700998385732</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.994389827658523</v>
+        <v>0.6648823434007909</v>
       </c>
       <c r="C8">
-        <v>0.1115708323487183</v>
+        <v>0.04388259757071467</v>
       </c>
       <c r="D8">
-        <v>0.1825665904389666</v>
+        <v>0.07489197323151586</v>
       </c>
       <c r="E8">
-        <v>0.04696297101327396</v>
+        <v>0.07308675347879223</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.679788363317527</v>
+        <v>1.885985014290924</v>
       </c>
       <c r="H8">
-        <v>1.049308890708176</v>
+        <v>1.599037067683071</v>
       </c>
       <c r="I8">
-        <v>1.191761024906512</v>
+        <v>1.617261132227696</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9659476223726529</v>
+        <v>0.4726727891106748</v>
       </c>
       <c r="L8">
-        <v>0.263486313620902</v>
+        <v>0.2288037469994322</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.345586509634018</v>
+        <v>0.7474446622551056</v>
       </c>
       <c r="C9">
-        <v>0.1463116915168996</v>
+        <v>0.05440760253918597</v>
       </c>
       <c r="D9">
-        <v>0.2482288473632366</v>
+        <v>0.09259849657540542</v>
       </c>
       <c r="E9">
-        <v>0.05597732311293058</v>
+        <v>0.07457626375056847</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.979464318356236</v>
+        <v>1.952005020653417</v>
       </c>
       <c r="H9">
-        <v>1.172168584568254</v>
+        <v>1.618898914463614</v>
       </c>
       <c r="I9">
-        <v>1.342614951223169</v>
+        <v>1.646097693337552</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.314870309880092</v>
+        <v>0.5597868805823225</v>
       </c>
       <c r="L9">
-        <v>0.3454776526029661</v>
+        <v>0.2474007490353927</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.611489015371689</v>
+        <v>0.8102163683895185</v>
       </c>
       <c r="C10">
-        <v>0.1724993666147014</v>
+        <v>0.06204047967081294</v>
       </c>
       <c r="D10">
-        <v>0.2981593883594655</v>
+        <v>0.1057985394444643</v>
       </c>
       <c r="E10">
-        <v>0.06300322725608609</v>
+        <v>0.07582253643718673</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.216846638590823</v>
+        <v>2.004515107419991</v>
       </c>
       <c r="H10">
-        <v>1.271452895442906</v>
+        <v>1.636241220080194</v>
       </c>
       <c r="I10">
-        <v>1.464065053108158</v>
+        <v>1.670168534524834</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.578714169784064</v>
+        <v>0.6252440053737303</v>
       </c>
       <c r="L10">
-        <v>0.4083440867526065</v>
+        <v>0.2617260007205715</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.73472778610585</v>
+        <v>0.8392333577315867</v>
       </c>
       <c r="C11">
-        <v>0.1846264235011574</v>
+        <v>0.06549232151434126</v>
       </c>
       <c r="D11">
-        <v>0.3213619569879853</v>
+        <v>0.1118465570038438</v>
       </c>
       <c r="E11">
-        <v>0.06630554122034127</v>
+        <v>0.07642249940140644</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.329459598997062</v>
+        <v>2.029282586478104</v>
       </c>
       <c r="H11">
-        <v>1.31898584652069</v>
+        <v>1.644730643632101</v>
       </c>
       <c r="I11">
-        <v>1.522116707494106</v>
+        <v>1.681749941404505</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.700949551113155</v>
+        <v>0.6553415124591879</v>
       </c>
       <c r="L11">
-        <v>0.4376738614655409</v>
+        <v>0.2683878356328364</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.781774479172668</v>
+        <v>0.8502877251010261</v>
       </c>
       <c r="C12">
-        <v>0.1892559018854314</v>
+        <v>0.06679658865674298</v>
       </c>
       <c r="D12">
-        <v>0.3302296179833917</v>
+        <v>0.1141430941518564</v>
       </c>
       <c r="E12">
-        <v>0.0675730085222277</v>
+        <v>0.07665443577028341</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.372850362783453</v>
+        <v>2.038788616985073</v>
       </c>
       <c r="H12">
-        <v>1.337363607331611</v>
+        <v>1.648031865109914</v>
       </c>
       <c r="I12">
-        <v>1.544548320913336</v>
+        <v>1.686226618846959</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.747608388092374</v>
+        <v>0.6667849105394907</v>
       </c>
       <c r="L12">
-        <v>0.4489001719102816</v>
+        <v>0.2709314362278263</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.771624411772052</v>
+        <v>0.847904024491271</v>
       </c>
       <c r="C13">
-        <v>0.1882570953613936</v>
+        <v>0.0665158180639196</v>
       </c>
       <c r="D13">
-        <v>0.3283160027934429</v>
+        <v>0.1136482132648382</v>
       </c>
       <c r="E13">
-        <v>0.06729925429118566</v>
+        <v>0.07660427325090424</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.363470792288723</v>
+        <v>2.036735660958499</v>
       </c>
       <c r="H13">
-        <v>1.333388174473157</v>
+        <v>1.647317040440498</v>
       </c>
       <c r="I13">
-        <v>1.539696539896028</v>
+        <v>1.685258432841863</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.737542173381684</v>
+        <v>0.6643183184456518</v>
       </c>
       <c r="L13">
-        <v>0.4464768111742785</v>
+        <v>0.2703826959737512</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.738590441454988</v>
+        <v>0.8401414799915869</v>
       </c>
       <c r="C14">
-        <v>0.1850065080958245</v>
+        <v>0.06559968152885176</v>
       </c>
       <c r="D14">
-        <v>0.3220898072301139</v>
+        <v>0.1120353681827169</v>
       </c>
       <c r="E14">
-        <v>0.06640946655861057</v>
+        <v>0.07644148591410627</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.333013923153175</v>
+        <v>2.030062102556911</v>
       </c>
       <c r="H14">
-        <v>1.320489990366696</v>
+        <v>1.645000503520237</v>
       </c>
       <c r="I14">
-        <v>1.523952899517226</v>
+        <v>1.682116414156326</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.70478044474936</v>
+        <v>0.6562820432401111</v>
       </c>
       <c r="L14">
-        <v>0.4385949679881236</v>
+        <v>0.2685966799882777</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.718407125457901</v>
+        <v>0.8353953225338273</v>
       </c>
       <c r="C15">
-        <v>0.1830204800942425</v>
+        <v>0.06503814947691922</v>
       </c>
       <c r="D15">
-        <v>0.3182870234120259</v>
+        <v>0.1110482743043661</v>
       </c>
       <c r="E15">
-        <v>0.06586670624699664</v>
+        <v>0.07634239153062339</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.314458006482369</v>
+        <v>2.025990926264853</v>
       </c>
       <c r="H15">
-        <v>1.312639894300418</v>
+        <v>1.643592821596059</v>
       </c>
       <c r="I15">
-        <v>1.514369331611107</v>
+        <v>1.680203701731728</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.684762912012502</v>
+        <v>0.6513655997440253</v>
       </c>
       <c r="L15">
-        <v>0.4337831648416</v>
+        <v>0.2675054173475786</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.603485181809106</v>
+        <v>0.8083293203191602</v>
       </c>
       <c r="C16">
-        <v>0.1717116783073891</v>
+        <v>0.06181448862842842</v>
       </c>
       <c r="D16">
-        <v>0.2966538041861071</v>
+        <v>0.105404163123751</v>
       </c>
       <c r="E16">
-        <v>0.0627896904107601</v>
+        <v>0.07578399153536353</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.209586988822878</v>
+        <v>2.002914254815067</v>
       </c>
       <c r="H16">
-        <v>1.268397280634019</v>
+        <v>1.635698507832586</v>
       </c>
       <c r="I16">
-        <v>1.460331447296269</v>
+        <v>1.669424390009922</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.570774705902835</v>
+        <v>0.6232835167079998</v>
       </c>
       <c r="L16">
-        <v>0.406443250342619</v>
+        <v>0.2612935584167957</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.533602709422183</v>
+        <v>0.7918433828283753</v>
       </c>
       <c r="C17">
-        <v>0.1648333067104488</v>
+        <v>0.05983169809066169</v>
       </c>
       <c r="D17">
-        <v>0.2835152762178268</v>
+        <v>0.1019528074051408</v>
       </c>
       <c r="E17">
-        <v>0.06093038809181195</v>
+        <v>0.0754498860879238</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.14649239350328</v>
+        <v>1.988983324021575</v>
       </c>
       <c r="H17">
-        <v>1.241887933449192</v>
+        <v>1.631009454669766</v>
       </c>
       <c r="I17">
-        <v>1.427930014461765</v>
+        <v>1.662973538752922</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.501449069582605</v>
+        <v>0.6061382169811793</v>
       </c>
       <c r="L17">
-        <v>0.3898683852344078</v>
+        <v>0.2575199944206474</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.493619259224658</v>
+        <v>0.7824045851830874</v>
       </c>
       <c r="C18">
-        <v>0.1608967826945644</v>
+        <v>0.05868932627453205</v>
       </c>
       <c r="D18">
-        <v>0.2760036397452552</v>
+        <v>0.0999717460707501</v>
       </c>
       <c r="E18">
-        <v>0.05987085258072611</v>
+        <v>0.07526082649831523</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.110632196505662</v>
+        <v>1.981053454726577</v>
       </c>
       <c r="H18">
-        <v>1.226860889023982</v>
+        <v>1.628368932186476</v>
       </c>
       <c r="I18">
-        <v>1.409554453289061</v>
+        <v>1.659322600919694</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.461779482991062</v>
+        <v>0.5963068823180322</v>
       </c>
       <c r="L18">
-        <v>0.3804028628894685</v>
+        <v>0.25536320598016</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480116327651615</v>
+        <v>0.7792162423673119</v>
       </c>
       <c r="C19">
-        <v>0.1595671476478771</v>
+        <v>0.05830220662366514</v>
       </c>
       <c r="D19">
-        <v>0.2734677891703825</v>
+        <v>0.09930168932275762</v>
       </c>
       <c r="E19">
-        <v>0.05951376126484575</v>
+        <v>0.07519734832841962</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.09856207789872</v>
+        <v>1.978382747995369</v>
       </c>
       <c r="H19">
-        <v>1.221809765307029</v>
+        <v>1.627484595950705</v>
       </c>
       <c r="I19">
-        <v>1.403376294747162</v>
+        <v>1.658096654260575</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.448381669966551</v>
+        <v>0.5929833461496514</v>
       </c>
       <c r="L19">
-        <v>0.3772092406967431</v>
+        <v>0.2546353007474522</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.54101961500848</v>
+        <v>0.7935938403368823</v>
       </c>
       <c r="C20">
-        <v>0.1655634343787398</v>
+        <v>0.06004296811991594</v>
       </c>
       <c r="D20">
-        <v>0.2849091302237809</v>
+        <v>0.1023197887098348</v>
       </c>
       <c r="E20">
-        <v>0.06112727914714711</v>
+        <v>0.07548513045377092</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.153163838556026</v>
+        <v>1.990457718602443</v>
       </c>
       <c r="H20">
-        <v>1.244686824840954</v>
+        <v>1.631502764183494</v>
       </c>
       <c r="I20">
-        <v>1.431351885646436</v>
+        <v>1.663654091220792</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.508807351086602</v>
+        <v>0.6079602390227308</v>
       </c>
       <c r="L20">
-        <v>0.3916256793122983</v>
+        <v>0.2579202821978299</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.748282603685055</v>
+        <v>0.8424197302499579</v>
       </c>
       <c r="C21">
-        <v>0.1859602193604957</v>
+        <v>0.06586885044382029</v>
       </c>
       <c r="D21">
-        <v>0.323916290481165</v>
+        <v>0.1125089288124173</v>
       </c>
       <c r="E21">
-        <v>0.06667034449653997</v>
+        <v>0.07648917181206372</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.341938889693211</v>
+        <v>2.032018834119782</v>
       </c>
       <c r="H21">
-        <v>1.324267920997841</v>
+        <v>1.645678578950253</v>
       </c>
       <c r="I21">
-        <v>1.528564624321831</v>
+        <v>1.683036828163054</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.714392842254938</v>
+        <v>0.6586412401778148</v>
       </c>
       <c r="L21">
-        <v>0.4409066828141164</v>
+        <v>0.2691207085049285</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.88597675205358</v>
+        <v>0.8747164412536392</v>
       </c>
       <c r="C22">
-        <v>0.1995111800456328</v>
+        <v>0.06965969921564863</v>
       </c>
       <c r="D22">
-        <v>0.3498898397602943</v>
+        <v>0.1192047800123675</v>
       </c>
       <c r="E22">
-        <v>0.07039277007326916</v>
+        <v>0.07717301650220776</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.469710407211153</v>
+        <v>2.059922645970914</v>
       </c>
       <c r="H22">
-        <v>1.37850266800973</v>
+        <v>1.655447318621782</v>
       </c>
       <c r="I22">
-        <v>1.594738767191458</v>
+        <v>1.696235391871909</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.850945622969334</v>
+        <v>0.6920330641683563</v>
       </c>
       <c r="L22">
-        <v>0.4738205608078374</v>
+        <v>0.2765627177347341</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.812263915946232</v>
+        <v>0.8574437910521056</v>
       </c>
       <c r="C23">
-        <v>0.1922562910330612</v>
+        <v>0.06763795954485374</v>
       </c>
       <c r="D23">
-        <v>0.3359793967180309</v>
+        <v>0.1156277024528123</v>
       </c>
       <c r="E23">
-        <v>0.06839631956968617</v>
+        <v>0.07680550805038067</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.401085009367023</v>
+        <v>2.04496186016658</v>
       </c>
       <c r="H23">
-        <v>1.349339652996605</v>
+        <v>1.650187394825878</v>
       </c>
       <c r="I23">
-        <v>1.559162534785017</v>
+        <v>1.689142417651084</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.777845438951118</v>
+        <v>0.6741866156187371</v>
       </c>
       <c r="L23">
-        <v>0.4561840161597672</v>
+        <v>0.2725796155758786</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.537665834916368</v>
+        <v>0.7928023364226533</v>
       </c>
       <c r="C24">
-        <v>0.165233288247137</v>
+        <v>0.0599474605435546</v>
       </c>
       <c r="D24">
-        <v>0.2842788392078432</v>
+        <v>0.1021538665994655</v>
       </c>
       <c r="E24">
-        <v>0.06103823554056831</v>
+        <v>0.07546918706260186</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.150146395633556</v>
+        <v>1.989790898113142</v>
       </c>
       <c r="H24">
-        <v>1.243420783728624</v>
+        <v>1.631279566761805</v>
       </c>
       <c r="I24">
-        <v>1.429804074735344</v>
+        <v>1.663346233591668</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.505480094595328</v>
+        <v>0.6071364227258016</v>
       </c>
       <c r="L24">
-        <v>0.3908310096796583</v>
+        <v>0.2577392725902428</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.249371331538583</v>
+        <v>0.7247386536954536</v>
       </c>
       <c r="C25">
-        <v>0.1368185367237089</v>
+        <v>0.05157820982466887</v>
       </c>
       <c r="D25">
-        <v>0.2302070693255018</v>
+        <v>0.08777533376574809</v>
       </c>
       <c r="E25">
-        <v>0.05347375964758072</v>
+        <v>0.07414662998088417</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.895649407541981</v>
+        <v>1.933444581496445</v>
       </c>
       <c r="H25">
-        <v>1.137475798266024</v>
+        <v>1.613043752542296</v>
       </c>
       <c r="I25">
-        <v>1.30009596002256</v>
+        <v>1.637791528741189</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.219343734814601</v>
+        <v>0.5359658316879461</v>
       </c>
       <c r="L25">
-        <v>0.3228856080187796</v>
+        <v>0.242253855032871</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6760459807522068</v>
+        <v>1.042188524727408</v>
       </c>
       <c r="C2">
-        <v>0.04534877463177622</v>
+        <v>0.1163169378312858</v>
       </c>
       <c r="D2">
-        <v>0.07731689401843767</v>
+        <v>0.1914838983163492</v>
       </c>
       <c r="E2">
-        <v>0.0732749881279311</v>
+        <v>0.0481680110868048</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.894647154833962</v>
+        <v>1.719495726336703</v>
       </c>
       <c r="H2">
-        <v>1.60146435362293</v>
+        <v>1.065375597876226</v>
       </c>
       <c r="I2">
-        <v>1.620913480237576</v>
+        <v>1.211539939732539</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4845422245924169</v>
+        <v>1.013482465625287</v>
       </c>
       <c r="L2">
-        <v>0.2312971062732743</v>
+        <v>0.2745638909142656</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6439311036247659</v>
+        <v>0.9042012057024635</v>
       </c>
       <c r="C3">
-        <v>0.04108333566638578</v>
+        <v>0.1025930688674066</v>
       </c>
       <c r="D3">
-        <v>0.07030685591355734</v>
+        <v>0.1657579960885727</v>
       </c>
       <c r="E3">
-        <v>0.07274797538192601</v>
+        <v>0.04471194443662441</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.870016963092127</v>
+        <v>1.605940531567057</v>
       </c>
       <c r="H3">
-        <v>1.594765022415061</v>
+        <v>1.019653879335948</v>
       </c>
       <c r="I3">
-        <v>1.610676766033947</v>
+        <v>1.155197194690246</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4502970264005342</v>
+        <v>0.8762022125392548</v>
       </c>
       <c r="L3">
-        <v>0.2241474590385053</v>
+        <v>0.242666256579696</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6246485635563488</v>
+        <v>0.8204490601519865</v>
       </c>
       <c r="C4">
-        <v>0.03844225338323781</v>
+        <v>0.09422354346098416</v>
       </c>
       <c r="D4">
-        <v>0.06604034181640372</v>
+        <v>0.1501689234758601</v>
       </c>
       <c r="E4">
-        <v>0.07245582459248823</v>
+        <v>0.04265135778832096</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.855709928715683</v>
+        <v>1.538739911631424</v>
       </c>
       <c r="H4">
-        <v>1.591216746434839</v>
+        <v>0.9929685581276431</v>
       </c>
       <c r="I4">
-        <v>1.604982087081858</v>
+        <v>1.122217224491919</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4295675579041358</v>
+        <v>0.7927849906431845</v>
       </c>
       <c r="L4">
-        <v>0.2198931589426536</v>
+        <v>0.2234369078578879</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6169006118445282</v>
+        <v>0.7865338545190355</v>
       </c>
       <c r="C5">
-        <v>0.0373603768850046</v>
+        <v>0.09082356593445695</v>
       </c>
       <c r="D5">
-        <v>0.06431111496596031</v>
+        <v>0.1438616435673623</v>
       </c>
       <c r="E5">
-        <v>0.07234468338711508</v>
+        <v>0.0418260866555169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.850084425235394</v>
+        <v>1.511941438698912</v>
       </c>
       <c r="H5">
-        <v>1.589912810683771</v>
+        <v>0.9824209915028348</v>
       </c>
       <c r="I5">
-        <v>1.602809793981827</v>
+        <v>1.109156678957667</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4211948879605245</v>
+        <v>0.758980469724861</v>
       </c>
       <c r="L5">
-        <v>0.2181935788248097</v>
+        <v>0.2156816327123749</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6156207096815365</v>
+        <v>0.7809143726550758</v>
       </c>
       <c r="C6">
-        <v>0.03718039128574446</v>
+        <v>0.09025954483362852</v>
       </c>
       <c r="D6">
-        <v>0.06402454484491216</v>
+        <v>0.1428168815354383</v>
       </c>
       <c r="E6">
-        <v>0.0723267066007196</v>
+        <v>0.04168989426942993</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.84916266638254</v>
+        <v>1.507525640046907</v>
       </c>
       <c r="H6">
-        <v>1.589704867843679</v>
+        <v>0.9806887022538433</v>
       </c>
       <c r="I6">
-        <v>1.602458039535549</v>
+        <v>1.10701012407656</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4198091283202245</v>
+        <v>0.7533777852944468</v>
       </c>
       <c r="L6">
-        <v>0.2179134227684045</v>
+        <v>0.2143985152225554</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.62454362699836</v>
+        <v>0.81999083774312</v>
       </c>
       <c r="C7">
-        <v>0.03842768562932974</v>
+        <v>0.09417765160944214</v>
       </c>
       <c r="D7">
-        <v>0.06601698282905488</v>
+        <v>0.1500836859003698</v>
       </c>
       <c r="E7">
-        <v>0.07245429365523037</v>
+        <v>0.0426401707470756</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.855633232885424</v>
+        <v>1.538376185257022</v>
       </c>
       <c r="H7">
-        <v>1.591198586218979</v>
+        <v>0.9928250144364199</v>
       </c>
       <c r="I7">
-        <v>1.604952190451606</v>
+        <v>1.122039584983007</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4294543384328904</v>
+        <v>0.7923283664986229</v>
       </c>
       <c r="L7">
-        <v>0.2198700998385732</v>
+        <v>0.2233320012224596</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6648823434007909</v>
+        <v>0.9943898276583809</v>
       </c>
       <c r="C8">
-        <v>0.04388259757071467</v>
+        <v>0.1115708323486047</v>
       </c>
       <c r="D8">
-        <v>0.07489197323151586</v>
+        <v>0.1825665904389666</v>
       </c>
       <c r="E8">
-        <v>0.07308675347879223</v>
+        <v>0.04696297101328462</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.885985014290924</v>
+        <v>1.679788363317527</v>
       </c>
       <c r="H8">
-        <v>1.599037067683071</v>
+        <v>1.049308890708176</v>
       </c>
       <c r="I8">
-        <v>1.617261132227696</v>
+        <v>1.191761024906512</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4726727891106748</v>
+        <v>0.9659476223725676</v>
       </c>
       <c r="L8">
-        <v>0.2288037469994322</v>
+        <v>0.263486313620831</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7474446622551056</v>
+        <v>1.345586509634074</v>
       </c>
       <c r="C9">
-        <v>0.05440760253918597</v>
+        <v>0.1463116915170275</v>
       </c>
       <c r="D9">
-        <v>0.09259849657540542</v>
+        <v>0.2482288473633076</v>
       </c>
       <c r="E9">
-        <v>0.07457626375056847</v>
+        <v>0.05597732311290216</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.952005020653417</v>
+        <v>1.979464318356236</v>
       </c>
       <c r="H9">
-        <v>1.618898914463614</v>
+        <v>1.172168584568254</v>
       </c>
       <c r="I9">
-        <v>1.646097693337552</v>
+        <v>1.342614951223212</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5597868805823225</v>
+        <v>1.314870309880035</v>
       </c>
       <c r="L9">
-        <v>0.2474007490353927</v>
+        <v>0.3454776526030088</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8102163683895185</v>
+        <v>1.611489015371689</v>
       </c>
       <c r="C10">
-        <v>0.06204047967081294</v>
+        <v>0.1724993666146588</v>
       </c>
       <c r="D10">
-        <v>0.1057985394444643</v>
+        <v>0.2981593883595508</v>
       </c>
       <c r="E10">
-        <v>0.07582253643718673</v>
+        <v>0.06300322725611096</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.004515107419991</v>
+        <v>2.216846638590823</v>
       </c>
       <c r="H10">
-        <v>1.636241220080194</v>
+        <v>1.271452895443019</v>
       </c>
       <c r="I10">
-        <v>1.670168534524834</v>
+        <v>1.464065053108186</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6252440053737303</v>
+        <v>1.578714169783922</v>
       </c>
       <c r="L10">
-        <v>0.2617260007205715</v>
+        <v>0.4083440867527059</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8392333577315867</v>
+        <v>1.734727786105822</v>
       </c>
       <c r="C11">
-        <v>0.06549232151434126</v>
+        <v>0.1846264235009443</v>
       </c>
       <c r="D11">
-        <v>0.1118465570038438</v>
+        <v>0.3213619569879995</v>
       </c>
       <c r="E11">
-        <v>0.07642249940140644</v>
+        <v>0.06630554122036614</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.029282586478104</v>
+        <v>2.329459598997033</v>
       </c>
       <c r="H11">
-        <v>1.644730643632101</v>
+        <v>1.318985846520661</v>
       </c>
       <c r="I11">
-        <v>1.681749941404505</v>
+        <v>1.522116707494092</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6553415124591879</v>
+        <v>1.700949551113069</v>
       </c>
       <c r="L11">
-        <v>0.2683878356328364</v>
+        <v>0.4376738614655409</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8502877251010261</v>
+        <v>1.781774479172412</v>
       </c>
       <c r="C12">
-        <v>0.06679658865674298</v>
+        <v>0.1892559018852324</v>
       </c>
       <c r="D12">
-        <v>0.1141430941518564</v>
+        <v>0.3302296179832922</v>
       </c>
       <c r="E12">
-        <v>0.07665443577028341</v>
+        <v>0.06757300852219927</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.038788616985073</v>
+        <v>2.372850362783481</v>
       </c>
       <c r="H12">
-        <v>1.648031865109914</v>
+        <v>1.337363607331554</v>
       </c>
       <c r="I12">
-        <v>1.686226618846959</v>
+        <v>1.544548320913322</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6667849105394907</v>
+        <v>1.747608388092374</v>
       </c>
       <c r="L12">
-        <v>0.2709314362278263</v>
+        <v>0.4489001719102532</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.847904024491271</v>
+        <v>1.771624411772052</v>
       </c>
       <c r="C13">
-        <v>0.0665158180639196</v>
+        <v>0.1882570953611662</v>
       </c>
       <c r="D13">
-        <v>0.1136482132648382</v>
+        <v>0.3283160027933434</v>
       </c>
       <c r="E13">
-        <v>0.07660427325090424</v>
+        <v>0.06729925429120343</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.036735660958499</v>
+        <v>2.363470792288695</v>
       </c>
       <c r="H13">
-        <v>1.647317040440498</v>
+        <v>1.333388174473072</v>
       </c>
       <c r="I13">
-        <v>1.685258432841863</v>
+        <v>1.539696539896028</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6643183184456518</v>
+        <v>1.737542173381598</v>
       </c>
       <c r="L13">
-        <v>0.2703826959737512</v>
+        <v>0.4464768111743211</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8401414799915869</v>
+        <v>1.738590441455187</v>
       </c>
       <c r="C14">
-        <v>0.06559968152885176</v>
+        <v>0.1850065080958103</v>
       </c>
       <c r="D14">
-        <v>0.1120353681827169</v>
+        <v>0.3220898072300997</v>
       </c>
       <c r="E14">
-        <v>0.07644148591410627</v>
+        <v>0.06640946655857149</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.030062102556911</v>
+        <v>2.333013923153231</v>
       </c>
       <c r="H14">
-        <v>1.645000503520237</v>
+        <v>1.320489990366696</v>
       </c>
       <c r="I14">
-        <v>1.682116414156326</v>
+        <v>1.523952899517226</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6562820432401111</v>
+        <v>1.704780444749389</v>
       </c>
       <c r="L14">
-        <v>0.2685966799882777</v>
+        <v>0.4385949679881378</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8353953225338273</v>
+        <v>1.718407125457759</v>
       </c>
       <c r="C15">
-        <v>0.06503814947691922</v>
+        <v>0.1830204800944557</v>
       </c>
       <c r="D15">
-        <v>0.1110482743043661</v>
+        <v>0.3182870234121395</v>
       </c>
       <c r="E15">
-        <v>0.07634239153062339</v>
+        <v>0.06586670624699309</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.025990926264853</v>
+        <v>2.31445800648234</v>
       </c>
       <c r="H15">
-        <v>1.643592821596059</v>
+        <v>1.312639894300503</v>
       </c>
       <c r="I15">
-        <v>1.680203701731728</v>
+        <v>1.51436933161115</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6513655997440253</v>
+        <v>1.684762912012388</v>
       </c>
       <c r="L15">
-        <v>0.2675054173475786</v>
+        <v>0.4337831648415715</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8083293203191602</v>
+        <v>1.603485181809219</v>
       </c>
       <c r="C16">
-        <v>0.06181448862842842</v>
+        <v>0.1717116783074175</v>
       </c>
       <c r="D16">
-        <v>0.105404163123751</v>
+        <v>0.2966538041859792</v>
       </c>
       <c r="E16">
-        <v>0.07578399153536353</v>
+        <v>0.0627896904107601</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.002914254815067</v>
+        <v>2.209586988822878</v>
       </c>
       <c r="H16">
-        <v>1.635698507832586</v>
+        <v>1.268397280634133</v>
       </c>
       <c r="I16">
-        <v>1.669424390009922</v>
+        <v>1.460331447296269</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6232835167079998</v>
+        <v>1.570774705902835</v>
       </c>
       <c r="L16">
-        <v>0.2612935584167957</v>
+        <v>0.4064432503426616</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7918433828283753</v>
+        <v>1.533602709422325</v>
       </c>
       <c r="C17">
-        <v>0.05983169809066169</v>
+        <v>0.164833306710193</v>
       </c>
       <c r="D17">
-        <v>0.1019528074051408</v>
+        <v>0.2835152762179263</v>
       </c>
       <c r="E17">
-        <v>0.0754498860879238</v>
+        <v>0.0609303880918084</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.988983324021575</v>
+        <v>2.146492393503308</v>
       </c>
       <c r="H17">
-        <v>1.631009454669766</v>
+        <v>1.241887933449192</v>
       </c>
       <c r="I17">
-        <v>1.662973538752922</v>
+        <v>1.427930014461765</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6061382169811793</v>
+        <v>1.501449069582605</v>
       </c>
       <c r="L17">
-        <v>0.2575199944206474</v>
+        <v>0.3898683852343936</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7824045851830874</v>
+        <v>1.493619259224602</v>
       </c>
       <c r="C18">
-        <v>0.05868932627453205</v>
+        <v>0.1608967826943228</v>
       </c>
       <c r="D18">
-        <v>0.0999717460707501</v>
+        <v>0.2760036397452836</v>
       </c>
       <c r="E18">
-        <v>0.07526082649831523</v>
+        <v>0.05987085258075098</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.981053454726577</v>
+        <v>2.110632196505719</v>
       </c>
       <c r="H18">
-        <v>1.628368932186476</v>
+        <v>1.226860889024124</v>
       </c>
       <c r="I18">
-        <v>1.659322600919694</v>
+        <v>1.409554453289076</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5963068823180322</v>
+        <v>1.461779482991034</v>
       </c>
       <c r="L18">
-        <v>0.25536320598016</v>
+        <v>0.3804028628893548</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7792162423673119</v>
+        <v>1.480116327651814</v>
       </c>
       <c r="C19">
-        <v>0.05830220662366514</v>
+        <v>0.1595671476478771</v>
       </c>
       <c r="D19">
-        <v>0.09930168932275762</v>
+        <v>0.2734677891706099</v>
       </c>
       <c r="E19">
-        <v>0.07519734832841962</v>
+        <v>0.05951376126487062</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.978382747995369</v>
+        <v>2.098562077898748</v>
       </c>
       <c r="H19">
-        <v>1.627484595950705</v>
+        <v>1.221809765307086</v>
       </c>
       <c r="I19">
-        <v>1.658096654260575</v>
+        <v>1.403376294747119</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5929833461496514</v>
+        <v>1.448381669966551</v>
       </c>
       <c r="L19">
-        <v>0.2546353007474522</v>
+        <v>0.3772092406967147</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7935938403368823</v>
+        <v>1.541019615008452</v>
       </c>
       <c r="C20">
-        <v>0.06004296811991594</v>
+        <v>0.1655634343783277</v>
       </c>
       <c r="D20">
-        <v>0.1023197887098348</v>
+        <v>0.284909130224122</v>
       </c>
       <c r="E20">
-        <v>0.07548513045377092</v>
+        <v>0.06112727914716487</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.990457718602443</v>
+        <v>2.153163838555969</v>
       </c>
       <c r="H20">
-        <v>1.631502764183494</v>
+        <v>1.244686824840954</v>
       </c>
       <c r="I20">
-        <v>1.663654091220792</v>
+        <v>1.431351885646421</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6079602390227308</v>
+        <v>1.508807351086745</v>
       </c>
       <c r="L20">
-        <v>0.2579202821978299</v>
+        <v>0.3916256793122841</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8424197302499579</v>
+        <v>1.748282603685198</v>
       </c>
       <c r="C21">
-        <v>0.06586885044382029</v>
+        <v>0.1859602193604957</v>
       </c>
       <c r="D21">
-        <v>0.1125089288124173</v>
+        <v>0.3239162904810513</v>
       </c>
       <c r="E21">
-        <v>0.07648917181206372</v>
+        <v>0.0666703444965151</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.032018834119782</v>
+        <v>2.341938889693239</v>
       </c>
       <c r="H21">
-        <v>1.645678578950253</v>
+        <v>1.324267920997812</v>
       </c>
       <c r="I21">
-        <v>1.683036828163054</v>
+        <v>1.528564624321831</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6586412401778148</v>
+        <v>1.714392842254938</v>
       </c>
       <c r="L21">
-        <v>0.2691207085049285</v>
+        <v>0.440906682814088</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8747164412536392</v>
+        <v>1.885976752053523</v>
       </c>
       <c r="C22">
-        <v>0.06965969921564863</v>
+        <v>0.1995111800458318</v>
       </c>
       <c r="D22">
-        <v>0.1192047800123675</v>
+        <v>0.3498898397605075</v>
       </c>
       <c r="E22">
-        <v>0.07717301650220776</v>
+        <v>0.07039277007323363</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.059922645970914</v>
+        <v>2.469710407211124</v>
       </c>
       <c r="H22">
-        <v>1.655447318621782</v>
+        <v>1.378502668009617</v>
       </c>
       <c r="I22">
-        <v>1.696235391871909</v>
+        <v>1.594738767191444</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6920330641683563</v>
+        <v>1.850945622969277</v>
       </c>
       <c r="L22">
-        <v>0.2765627177347341</v>
+        <v>0.4738205608077948</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8574437910521056</v>
+        <v>1.812263915946346</v>
       </c>
       <c r="C23">
-        <v>0.06763795954485374</v>
+        <v>0.192256291032848</v>
       </c>
       <c r="D23">
-        <v>0.1156277024528123</v>
+        <v>0.3359793967179172</v>
       </c>
       <c r="E23">
-        <v>0.07680550805038067</v>
+        <v>0.06839631956968972</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.04496186016658</v>
+        <v>2.401085009367051</v>
       </c>
       <c r="H23">
-        <v>1.650187394825878</v>
+        <v>1.349339652996491</v>
       </c>
       <c r="I23">
-        <v>1.689142417651084</v>
+        <v>1.559162534785003</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6741866156187371</v>
+        <v>1.777845438951033</v>
       </c>
       <c r="L23">
-        <v>0.2725796155758786</v>
+        <v>0.4561840161597672</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7928023364226533</v>
+        <v>1.537665834916254</v>
       </c>
       <c r="C24">
-        <v>0.0599474605435546</v>
+        <v>0.165233288246867</v>
       </c>
       <c r="D24">
-        <v>0.1021538665994655</v>
+        <v>0.2842788392079427</v>
       </c>
       <c r="E24">
-        <v>0.07546918706260186</v>
+        <v>0.06103823554058962</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.989790898113142</v>
+        <v>2.150146395633527</v>
       </c>
       <c r="H24">
-        <v>1.631279566761805</v>
+        <v>1.243420783728538</v>
       </c>
       <c r="I24">
-        <v>1.663346233591668</v>
+        <v>1.429804074735358</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6071364227258016</v>
+        <v>1.505480094595271</v>
       </c>
       <c r="L24">
-        <v>0.2577392725902428</v>
+        <v>0.3908310096795873</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7247386536954536</v>
+        <v>1.249371331538583</v>
       </c>
       <c r="C25">
-        <v>0.05157820982466887</v>
+        <v>0.1368185367237231</v>
       </c>
       <c r="D25">
-        <v>0.08777533376574809</v>
+        <v>0.2302070693256297</v>
       </c>
       <c r="E25">
-        <v>0.07414662998088417</v>
+        <v>0.05347375964759493</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.933444581496445</v>
+        <v>1.895649407542038</v>
       </c>
       <c r="H25">
-        <v>1.613043752542296</v>
+        <v>1.137475798266024</v>
       </c>
       <c r="I25">
-        <v>1.637791528741189</v>
+        <v>1.300095960022574</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5359658316879461</v>
+        <v>1.219343734814629</v>
       </c>
       <c r="L25">
-        <v>0.242253855032871</v>
+        <v>0.3228856080187654</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.042188524727408</v>
+        <v>3.490854537714768</v>
       </c>
       <c r="C2">
-        <v>0.1163169378312858</v>
+        <v>1.416212598950267</v>
       </c>
       <c r="D2">
-        <v>0.1914838983163492</v>
+        <v>0.2022519338733559</v>
       </c>
       <c r="E2">
-        <v>0.0481680110868048</v>
+        <v>1.364563911742351</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.719495726336703</v>
+        <v>1.616540852886061</v>
       </c>
       <c r="H2">
-        <v>1.065375597876226</v>
+        <v>0.01234495443154543</v>
       </c>
       <c r="I2">
-        <v>1.211539939732539</v>
+        <v>0.006132614447514229</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9220402007397581</v>
       </c>
       <c r="K2">
-        <v>1.013482465625287</v>
+        <v>0.6895498113013687</v>
       </c>
       <c r="L2">
-        <v>0.2745638909142656</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9042012057024635</v>
+        <v>3.034367025697634</v>
       </c>
       <c r="C3">
-        <v>0.1025930688674066</v>
+        <v>1.229253489113205</v>
       </c>
       <c r="D3">
-        <v>0.1657579960885727</v>
+        <v>0.1749826002058938</v>
       </c>
       <c r="E3">
-        <v>0.04471194443662441</v>
+        <v>1.181213663991045</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.605940531567057</v>
+        <v>1.436817612926376</v>
       </c>
       <c r="H3">
-        <v>1.019653879335948</v>
+        <v>0.008113896856597913</v>
       </c>
       <c r="I3">
-        <v>1.155197194690246</v>
+        <v>0.0031816339818036</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8421880624927383</v>
       </c>
       <c r="K3">
-        <v>0.8762022125392548</v>
+        <v>0.639371118471125</v>
       </c>
       <c r="L3">
-        <v>0.242666256579696</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8204490601519865</v>
+        <v>2.754733431600187</v>
       </c>
       <c r="C4">
-        <v>0.09422354346098416</v>
+        <v>1.115710483934151</v>
       </c>
       <c r="D4">
-        <v>0.1501689234758601</v>
+        <v>0.1584573937734035</v>
       </c>
       <c r="E4">
-        <v>0.04265135778832096</v>
+        <v>1.069586861490862</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.538739911631424</v>
+        <v>1.327588982822306</v>
       </c>
       <c r="H4">
-        <v>0.9929685581276431</v>
+        <v>0.005896813778891064</v>
       </c>
       <c r="I4">
-        <v>1.122217224491919</v>
+        <v>0.00188547269839523</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7937849133445241</v>
       </c>
       <c r="K4">
-        <v>0.7927849906431845</v>
+        <v>0.6089014968963795</v>
       </c>
       <c r="L4">
-        <v>0.2234369078578879</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7865338545190355</v>
+        <v>2.640844814970137</v>
       </c>
       <c r="C5">
-        <v>0.09082356593445695</v>
+        <v>1.070952818827834</v>
       </c>
       <c r="D5">
-        <v>0.1438616435673623</v>
+        <v>0.1517692344285138</v>
       </c>
       <c r="E5">
-        <v>0.0418260866555169</v>
+        <v>1.024265544964933</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.511941438698912</v>
+        <v>1.28040456376047</v>
       </c>
       <c r="H5">
-        <v>0.9824209915028348</v>
+        <v>0.005078105962595836</v>
       </c>
       <c r="I5">
-        <v>1.109156678957667</v>
+        <v>0.001533135816232711</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.772717915093466</v>
       </c>
       <c r="K5">
-        <v>0.758980469724861</v>
+        <v>0.5948545247077561</v>
       </c>
       <c r="L5">
-        <v>0.2156816327123749</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7809143726550758</v>
+        <v>2.621882062548707</v>
       </c>
       <c r="C6">
-        <v>0.09025954483362852</v>
+        <v>1.065055988263509</v>
       </c>
       <c r="D6">
-        <v>0.1428168815354383</v>
+        <v>0.150659246483329</v>
       </c>
       <c r="E6">
-        <v>0.04168989426942993</v>
+        <v>1.016714438806773</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.507525640046907</v>
+        <v>1.269037669527933</v>
       </c>
       <c r="H6">
-        <v>0.9806887022538433</v>
+        <v>0.004944103849834125</v>
       </c>
       <c r="I6">
-        <v>1.10701012407656</v>
+        <v>0.001559201694197654</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7674254575931627</v>
       </c>
       <c r="K6">
-        <v>0.7533777852944468</v>
+        <v>0.5904537782865091</v>
       </c>
       <c r="L6">
-        <v>0.2143985152225554</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.81999083774312</v>
+        <v>2.753035538325094</v>
       </c>
       <c r="C7">
-        <v>0.09417765160944214</v>
+        <v>1.119267512366832</v>
       </c>
       <c r="D7">
-        <v>0.1500836859003698</v>
+        <v>0.1583609391084764</v>
       </c>
       <c r="E7">
-        <v>0.0426401707470756</v>
+        <v>1.068873012653</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.538376185257022</v>
+        <v>1.317241534738173</v>
       </c>
       <c r="H7">
-        <v>0.9928250144364199</v>
+        <v>0.005876176765358787</v>
       </c>
       <c r="I7">
-        <v>1.122039584983007</v>
+        <v>0.002074500610211416</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7885685829878355</v>
       </c>
       <c r="K7">
-        <v>0.7923283664986229</v>
+        <v>0.603037874568976</v>
       </c>
       <c r="L7">
-        <v>0.2233320012224596</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9943898276583809</v>
+        <v>3.33304599574393</v>
       </c>
       <c r="C8">
-        <v>0.1115708323486047</v>
+        <v>1.357021846806958</v>
       </c>
       <c r="D8">
-        <v>0.1825665904389666</v>
+        <v>0.1927900908849551</v>
       </c>
       <c r="E8">
-        <v>0.04696297101328462</v>
+        <v>1.300973079378181</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.679788363317527</v>
+        <v>1.541342955941985</v>
       </c>
       <c r="H8">
-        <v>1.049308890708176</v>
+        <v>0.01078582041082196</v>
       </c>
       <c r="I8">
-        <v>1.191761024906512</v>
+        <v>0.005216348438201734</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.887794541103176</v>
       </c>
       <c r="K8">
-        <v>0.9659476223725676</v>
+        <v>0.6646097632370314</v>
       </c>
       <c r="L8">
-        <v>0.263486313620831</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.345586509634074</v>
+        <v>4.478621776307762</v>
       </c>
       <c r="C9">
-        <v>0.1463116915170275</v>
+        <v>1.827746198066507</v>
       </c>
       <c r="D9">
-        <v>0.2482288473633076</v>
+        <v>0.2624032518185828</v>
       </c>
       <c r="E9">
-        <v>0.05597732311290216</v>
+        <v>1.765924308566539</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.979464318356236</v>
+        <v>2.010008179911694</v>
       </c>
       <c r="H9">
-        <v>1.172168584568254</v>
+        <v>0.02386751653089458</v>
       </c>
       <c r="I9">
-        <v>1.342614951223212</v>
+        <v>0.01576486621472295</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.097516050524774</v>
       </c>
       <c r="K9">
-        <v>1.314870309880035</v>
+        <v>0.7992322867083388</v>
       </c>
       <c r="L9">
-        <v>0.3454776526030088</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.611489015371689</v>
+        <v>5.32676769326207</v>
       </c>
       <c r="C10">
-        <v>0.1724993666146588</v>
+        <v>2.173602647654548</v>
       </c>
       <c r="D10">
-        <v>0.2981593883595508</v>
+        <v>0.315210196925733</v>
       </c>
       <c r="E10">
-        <v>0.06300322725611096</v>
+        <v>2.011747114306971</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.216846638590823</v>
+        <v>2.306769801652308</v>
       </c>
       <c r="H10">
-        <v>1.271452895443019</v>
+        <v>0.0351856657729348</v>
       </c>
       <c r="I10">
-        <v>1.464065053108186</v>
+        <v>0.02687319491123397</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.22811069373509</v>
       </c>
       <c r="K10">
-        <v>1.578714169783922</v>
+        <v>0.8741836334477853</v>
       </c>
       <c r="L10">
-        <v>0.4083440867527059</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.734727786105822</v>
+        <v>5.695302759253593</v>
       </c>
       <c r="C11">
-        <v>0.1846264235009443</v>
+        <v>2.230718671331488</v>
       </c>
       <c r="D11">
-        <v>0.3213619569879995</v>
+        <v>0.3384963766740157</v>
       </c>
       <c r="E11">
-        <v>0.06630554122036614</v>
+        <v>1.315646155096744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.329459598997033</v>
+        <v>1.980226884228387</v>
       </c>
       <c r="H11">
-        <v>1.318985846520661</v>
+        <v>0.05039100899320914</v>
       </c>
       <c r="I11">
-        <v>1.522116707494092</v>
+        <v>0.02969354289664317</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.057901888627811</v>
       </c>
       <c r="K11">
-        <v>1.700949551113069</v>
+        <v>0.6985783789517654</v>
       </c>
       <c r="L11">
-        <v>0.4376738614655409</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.781774479172412</v>
+        <v>5.828066734430706</v>
       </c>
       <c r="C12">
-        <v>0.1892559018852324</v>
+        <v>2.198845331423172</v>
       </c>
       <c r="D12">
-        <v>0.3302296179832922</v>
+        <v>0.3469133408921437</v>
       </c>
       <c r="E12">
-        <v>0.06757300852219927</v>
+        <v>0.8104495408233134</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.372850362783481</v>
+        <v>1.680706664681566</v>
       </c>
       <c r="H12">
-        <v>1.337363607331554</v>
+        <v>0.08553188707760739</v>
       </c>
       <c r="I12">
-        <v>1.544548320913322</v>
+        <v>0.02946559390674697</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9053609137521903</v>
       </c>
       <c r="K12">
-        <v>1.747608388092374</v>
+        <v>0.5593907272835139</v>
       </c>
       <c r="L12">
-        <v>0.4489001719102532</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.771624411772052</v>
+        <v>5.785549817281719</v>
       </c>
       <c r="C13">
-        <v>0.1882570953611662</v>
+        <v>2.103943729828814</v>
       </c>
       <c r="D13">
-        <v>0.3283160027933434</v>
+        <v>0.3442011898036981</v>
       </c>
       <c r="E13">
-        <v>0.06729925429120343</v>
+        <v>0.424307020280537</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.363470792288695</v>
+        <v>1.370947789418892</v>
       </c>
       <c r="H13">
-        <v>1.333388174473072</v>
+        <v>0.1373617925030715</v>
       </c>
       <c r="I13">
-        <v>1.539696539896028</v>
+        <v>0.02712690255282002</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7504891688844566</v>
       </c>
       <c r="K13">
-        <v>1.737542173381598</v>
+        <v>0.4315157233652727</v>
       </c>
       <c r="L13">
-        <v>0.4464768111743211</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.738590441455187</v>
+        <v>5.676905200039585</v>
       </c>
       <c r="C14">
-        <v>0.1850065080958103</v>
+        <v>2.011296127337687</v>
       </c>
       <c r="D14">
-        <v>0.3220898072300997</v>
+        <v>0.3373077480644753</v>
       </c>
       <c r="E14">
-        <v>0.06640946655857149</v>
+        <v>0.2271599158947097</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.333013923153231</v>
+        <v>1.152744170905606</v>
       </c>
       <c r="H14">
-        <v>1.320489990366696</v>
+        <v>0.1839830064955805</v>
       </c>
       <c r="I14">
-        <v>1.523952899517226</v>
+        <v>0.02474816286534054</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6424543510351555</v>
       </c>
       <c r="K14">
-        <v>1.704780444749389</v>
+        <v>0.3488124329797486</v>
       </c>
       <c r="L14">
-        <v>0.4385949679881378</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.718407125457759</v>
+        <v>5.612954276525215</v>
       </c>
       <c r="C15">
-        <v>0.1830204800944557</v>
+        <v>1.977175220238109</v>
       </c>
       <c r="D15">
-        <v>0.3182870234121395</v>
+        <v>0.333262511860724</v>
       </c>
       <c r="E15">
-        <v>0.06586670624699309</v>
+        <v>0.1878648381336312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.31445800648234</v>
+        <v>1.092369202758647</v>
       </c>
       <c r="H15">
-        <v>1.312639894300503</v>
+        <v>0.1955484238215064</v>
       </c>
       <c r="I15">
-        <v>1.51436933161115</v>
+        <v>0.02381397160306697</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6131649386193772</v>
       </c>
       <c r="K15">
-        <v>1.684762912012388</v>
+        <v>0.3279386319462461</v>
       </c>
       <c r="L15">
-        <v>0.4337831648415715</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.603485181809219</v>
+        <v>5.255821202291145</v>
       </c>
       <c r="C16">
-        <v>0.1717116783074175</v>
+        <v>1.853199798396702</v>
       </c>
       <c r="D16">
-        <v>0.2966538041859792</v>
+        <v>0.3107796477229954</v>
       </c>
       <c r="E16">
-        <v>0.0627896904107601</v>
+        <v>0.1797972643832466</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.209586988822878</v>
+        <v>1.032591201832005</v>
       </c>
       <c r="H16">
-        <v>1.268397280634133</v>
+        <v>0.1793208090562075</v>
       </c>
       <c r="I16">
-        <v>1.460331447296269</v>
+        <v>0.01964643105094765</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5902736869210656</v>
       </c>
       <c r="K16">
-        <v>1.570774705902835</v>
+        <v>0.3224540504984716</v>
       </c>
       <c r="L16">
-        <v>0.4064432503426616</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.533602709422325</v>
+        <v>5.040166769553707</v>
       </c>
       <c r="C17">
-        <v>0.164833306710193</v>
+        <v>1.807118925358566</v>
       </c>
       <c r="D17">
-        <v>0.2835152762179263</v>
+        <v>0.2972906536205073</v>
       </c>
       <c r="E17">
-        <v>0.0609303880918084</v>
+        <v>0.2637150992443793</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.146492393503308</v>
+        <v>1.098483462218127</v>
       </c>
       <c r="H17">
-        <v>1.241887933449192</v>
+        <v>0.140203617907801</v>
       </c>
       <c r="I17">
-        <v>1.427930014461765</v>
+        <v>0.01773835604731122</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6282172400544255</v>
       </c>
       <c r="K17">
-        <v>1.501449069582605</v>
+        <v>0.3599609691462575</v>
       </c>
       <c r="L17">
-        <v>0.3898683852343936</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.493619259224602</v>
+        <v>4.921167014034211</v>
       </c>
       <c r="C18">
-        <v>0.1608967826943228</v>
+        <v>1.819140402344885</v>
       </c>
       <c r="D18">
-        <v>0.2760036397452836</v>
+        <v>0.2898737040474373</v>
       </c>
       <c r="E18">
-        <v>0.05987085258075098</v>
+        <v>0.5000431235280587</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.110632196505719</v>
+        <v>1.29788296970122</v>
       </c>
       <c r="H18">
-        <v>1.226860889024124</v>
+        <v>0.08817872796176829</v>
       </c>
       <c r="I18">
-        <v>1.409554453289076</v>
+        <v>0.01721502438230083</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7314864584177769</v>
       </c>
       <c r="K18">
-        <v>1.461779482991034</v>
+        <v>0.4496736775030712</v>
       </c>
       <c r="L18">
-        <v>0.3804028628893548</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480116327651814</v>
+        <v>4.888778455614727</v>
       </c>
       <c r="C19">
-        <v>0.1595671476478771</v>
+        <v>1.886323478327142</v>
       </c>
       <c r="D19">
-        <v>0.2734677891706099</v>
+        <v>0.2878573964769942</v>
       </c>
       <c r="E19">
-        <v>0.05951376126487062</v>
+        <v>0.9413158149948941</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.098562077898748</v>
+        <v>1.596753957657114</v>
       </c>
       <c r="H19">
-        <v>1.221809765307086</v>
+        <v>0.04632902897709101</v>
       </c>
       <c r="I19">
-        <v>1.403376294747119</v>
+        <v>0.01841474528832521</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8823597062651345</v>
       </c>
       <c r="K19">
-        <v>1.448381669966551</v>
+        <v>0.5802736926716392</v>
       </c>
       <c r="L19">
-        <v>0.3772092406967147</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.541019615008452</v>
+        <v>5.102476995253085</v>
       </c>
       <c r="C20">
-        <v>0.1655634343783277</v>
+        <v>2.094880414965473</v>
       </c>
       <c r="D20">
-        <v>0.284909130224122</v>
+        <v>0.3011601200674505</v>
       </c>
       <c r="E20">
-        <v>0.06112727914716487</v>
+        <v>1.941908297253391</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.153163838555969</v>
+        <v>2.194954886691932</v>
       </c>
       <c r="H20">
-        <v>1.244686824840954</v>
+        <v>0.03190618416992486</v>
       </c>
       <c r="I20">
-        <v>1.431351885646421</v>
+        <v>0.02417198168109724</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.176736639842062</v>
       </c>
       <c r="K20">
-        <v>1.508807351086745</v>
+        <v>0.8354032197368824</v>
       </c>
       <c r="L20">
-        <v>0.3916256793122841</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.748282603685198</v>
+        <v>5.761014809441974</v>
       </c>
       <c r="C21">
-        <v>0.1859602193604957</v>
+        <v>2.381331817493049</v>
       </c>
       <c r="D21">
-        <v>0.3239162904810513</v>
+        <v>0.3426426730514152</v>
       </c>
       <c r="E21">
-        <v>0.0666703444965151</v>
+        <v>2.296037835363691</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.341938889693239</v>
+        <v>2.517013075941975</v>
       </c>
       <c r="H21">
-        <v>1.324267920997812</v>
+        <v>0.0431784871336065</v>
       </c>
       <c r="I21">
-        <v>1.528564624321831</v>
+        <v>0.03459154333805881</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.323888641900993</v>
       </c>
       <c r="K21">
-        <v>1.714392842254938</v>
+        <v>0.9363870953132079</v>
       </c>
       <c r="L21">
-        <v>0.440906682814088</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.885976752053523</v>
+        <v>6.193757860364656</v>
       </c>
       <c r="C22">
-        <v>0.1995111800458318</v>
+        <v>2.559611132893281</v>
       </c>
       <c r="D22">
-        <v>0.3498898397605075</v>
+        <v>0.3702226509747533</v>
       </c>
       <c r="E22">
-        <v>0.07039277007323363</v>
+        <v>2.477297454851367</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.469710407211124</v>
+        <v>2.716901799761104</v>
       </c>
       <c r="H22">
-        <v>1.378502668009617</v>
+        <v>0.05078807317528877</v>
       </c>
       <c r="I22">
-        <v>1.594738767191444</v>
+        <v>0.04200014386205808</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.41486467485359</v>
       </c>
       <c r="K22">
-        <v>1.850945622969277</v>
+        <v>0.9986389163161817</v>
       </c>
       <c r="L22">
-        <v>0.4738205608077948</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.812263915946346</v>
+        <v>5.962798295623145</v>
       </c>
       <c r="C23">
-        <v>0.192256291032848</v>
+        <v>2.459052929430072</v>
       </c>
       <c r="D23">
-        <v>0.3359793967179172</v>
+        <v>0.3554657074519554</v>
       </c>
       <c r="E23">
-        <v>0.06839631956968972</v>
+        <v>2.380464350777174</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.401085009367051</v>
+        <v>2.621698265001896</v>
       </c>
       <c r="H23">
-        <v>1.349339652996491</v>
+        <v>0.04668370182135728</v>
       </c>
       <c r="I23">
-        <v>1.559162534785003</v>
+        <v>0.03776958197051261</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.37209270652761</v>
       </c>
       <c r="K23">
-        <v>1.777845438951033</v>
+        <v>0.9721299750982837</v>
       </c>
       <c r="L23">
-        <v>0.4561840161597672</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.537665834916254</v>
+        <v>5.093955041718061</v>
       </c>
       <c r="C24">
-        <v>0.165233288246867</v>
+        <v>2.092373481925051</v>
       </c>
       <c r="D24">
-        <v>0.2842788392079427</v>
+        <v>0.300615139906995</v>
       </c>
       <c r="E24">
-        <v>0.06103823554058962</v>
+        <v>2.01902110525468</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.150146395633527</v>
+        <v>2.250033385172287</v>
       </c>
       <c r="H24">
-        <v>1.243420783728538</v>
+        <v>0.03254154869434878</v>
       </c>
       <c r="I24">
-        <v>1.429804074735358</v>
+        <v>0.02398011322701432</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.204443277205996</v>
       </c>
       <c r="K24">
-        <v>1.505480094595271</v>
+        <v>0.863562098013027</v>
       </c>
       <c r="L24">
-        <v>0.3908310096795873</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.249371331538583</v>
+        <v>4.167079443840635</v>
       </c>
       <c r="C25">
-        <v>0.1368185367237231</v>
+        <v>1.706495024326273</v>
       </c>
       <c r="D25">
-        <v>0.2302070693256297</v>
+        <v>0.2432788829311505</v>
       </c>
       <c r="E25">
-        <v>0.05347375964759493</v>
+        <v>1.638579449759419</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.895649407542038</v>
+        <v>1.86369512075899</v>
       </c>
       <c r="H25">
-        <v>1.137475798266024</v>
+        <v>0.01987189383075316</v>
       </c>
       <c r="I25">
-        <v>1.300095960022574</v>
+        <v>0.01262034709734472</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.030892181379215</v>
       </c>
       <c r="K25">
-        <v>1.219343734814629</v>
+        <v>0.7519079288432948</v>
       </c>
       <c r="L25">
-        <v>0.3228856080187654</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.490854537714768</v>
+        <v>3.484928121111295</v>
       </c>
       <c r="C2">
-        <v>1.416212598950267</v>
+        <v>1.570396564940779</v>
       </c>
       <c r="D2">
-        <v>0.2022519338733559</v>
+        <v>0.2018261037329836</v>
       </c>
       <c r="E2">
-        <v>1.364563911742351</v>
+        <v>1.358175863883261</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.616540852886061</v>
+        <v>1.240864449419405</v>
       </c>
       <c r="H2">
-        <v>0.01234495443154543</v>
+        <v>0.01163406088314028</v>
       </c>
       <c r="I2">
-        <v>0.006132614447514229</v>
+        <v>0.005525852186107905</v>
       </c>
       <c r="J2">
-        <v>0.9220402007397581</v>
+        <v>0.7994181307806514</v>
       </c>
       <c r="K2">
-        <v>0.6895498113013687</v>
+        <v>0.4902250526438792</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2480419766021953</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.136479509598999</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.034367025697634</v>
+        <v>3.033007744507984</v>
       </c>
       <c r="C3">
-        <v>1.229253489113205</v>
+        <v>1.357297309231797</v>
       </c>
       <c r="D3">
-        <v>0.1749826002058938</v>
+        <v>0.1747712700123287</v>
       </c>
       <c r="E3">
-        <v>1.181213663991045</v>
+        <v>1.177835407809226</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.436817612926376</v>
+        <v>1.117069002270028</v>
       </c>
       <c r="H3">
-        <v>0.008113896856597913</v>
+        <v>0.007778030478839182</v>
       </c>
       <c r="I3">
-        <v>0.0031816339818036</v>
+        <v>0.00313307079877978</v>
       </c>
       <c r="J3">
-        <v>0.8421880624927383</v>
+        <v>0.7430648011871597</v>
       </c>
       <c r="K3">
-        <v>0.639371118471125</v>
+        <v>0.4687936642611774</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2475382367264984</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1208050149212276</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.754733431600187</v>
+        <v>2.755705297844429</v>
       </c>
       <c r="C4">
-        <v>1.115710483934151</v>
+        <v>1.22783870076421</v>
       </c>
       <c r="D4">
-        <v>0.1584573937734035</v>
+        <v>0.1583525623758959</v>
       </c>
       <c r="E4">
-        <v>1.069586861490862</v>
+        <v>1.067833224273144</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.327588982822306</v>
+        <v>1.04182731152116</v>
       </c>
       <c r="H4">
-        <v>0.005896813778891064</v>
+        <v>0.005737960924706798</v>
       </c>
       <c r="I4">
-        <v>0.00188547269839523</v>
+        <v>0.002041312726212219</v>
       </c>
       <c r="J4">
-        <v>0.7937849133445241</v>
+        <v>0.7083794950432178</v>
       </c>
       <c r="K4">
-        <v>0.6089014968963795</v>
+        <v>0.4556988550554237</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2469889062150301</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1120251838855708</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.640844814970137</v>
+        <v>2.642668162366704</v>
       </c>
       <c r="C5">
-        <v>1.070952818827834</v>
+        <v>1.176542057303152</v>
       </c>
       <c r="D5">
-        <v>0.1517692344285138</v>
+        <v>0.1517027233040409</v>
       </c>
       <c r="E5">
-        <v>1.024265544964933</v>
+        <v>1.023130296413569</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.28040456376047</v>
+        <v>1.009083304878445</v>
       </c>
       <c r="H5">
-        <v>0.005078105962595836</v>
+        <v>0.004979853189293171</v>
       </c>
       <c r="I5">
-        <v>0.001533135816232711</v>
+        <v>0.001753978096140862</v>
       </c>
       <c r="J5">
-        <v>0.772717915093466</v>
+        <v>0.6930423685186042</v>
       </c>
       <c r="K5">
-        <v>0.5948545247077561</v>
+        <v>0.4491494697336833</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2461670921678447</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1082705364890053</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.621882062548707</v>
+        <v>2.623847468596352</v>
       </c>
       <c r="C6">
-        <v>1.065055988263509</v>
+        <v>1.169451833863093</v>
       </c>
       <c r="D6">
-        <v>0.150659246483329</v>
+        <v>0.1505991622436227</v>
       </c>
       <c r="E6">
-        <v>1.016714438806773</v>
+        <v>1.015685469897718</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.269037669527933</v>
+        <v>1.000927498682643</v>
       </c>
       <c r="H6">
-        <v>0.004944103849834125</v>
+        <v>0.004855779709650787</v>
       </c>
       <c r="I6">
-        <v>0.001559201694197654</v>
+        <v>0.001806591786365885</v>
       </c>
       <c r="J6">
-        <v>0.7674254575931627</v>
+        <v>0.6890632449168947</v>
       </c>
       <c r="K6">
-        <v>0.5904537782865091</v>
+        <v>0.4465756988703262</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2453730497220761</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.10719444678017</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.753035538325094</v>
+        <v>2.753961889486163</v>
       </c>
       <c r="C7">
-        <v>1.119267512366832</v>
+        <v>1.229199228391394</v>
       </c>
       <c r="D7">
-        <v>0.1583609391084764</v>
+        <v>0.1582535982830535</v>
       </c>
       <c r="E7">
-        <v>1.068873012653</v>
+        <v>1.067077737109031</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.317241534738173</v>
+        <v>1.036987975177567</v>
       </c>
       <c r="H7">
-        <v>0.005876176765358787</v>
+        <v>0.005713721146801798</v>
       </c>
       <c r="I7">
-        <v>0.002074500610211416</v>
+        <v>0.00227178418475571</v>
       </c>
       <c r="J7">
-        <v>0.7885685829878355</v>
+        <v>0.693968684651864</v>
       </c>
       <c r="K7">
-        <v>0.603037874568976</v>
+        <v>0.4496810010276562</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2444106657088909</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.110076769582566</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.33304599574393</v>
+        <v>3.328555427292201</v>
       </c>
       <c r="C8">
-        <v>1.357021846806958</v>
+        <v>1.495667090108554</v>
       </c>
       <c r="D8">
-        <v>0.1927900908849551</v>
+        <v>0.1924299981723863</v>
       </c>
       <c r="E8">
-        <v>1.300973079378181</v>
+        <v>1.295462217051679</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.541342955941985</v>
+        <v>1.198409054310559</v>
       </c>
       <c r="H8">
-        <v>0.01078582041082196</v>
+        <v>0.01019370887248995</v>
       </c>
       <c r="I8">
-        <v>0.005216348438201734</v>
+        <v>0.004864976063099213</v>
       </c>
       <c r="J8">
-        <v>0.887794541103176</v>
+        <v>0.7408604091032771</v>
       </c>
       <c r="K8">
-        <v>0.6646097632370314</v>
+        <v>0.4713444946411514</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2432178244155381</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1269510176258031</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.478621776307762</v>
+        <v>4.459207535629616</v>
       </c>
       <c r="C9">
-        <v>1.827746198066507</v>
+        <v>2.030697448134163</v>
       </c>
       <c r="D9">
-        <v>0.2624032518185828</v>
+        <v>0.2613087857636458</v>
       </c>
       <c r="E9">
-        <v>1.765924308566539</v>
+        <v>1.751179436340237</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.010008179911694</v>
+        <v>1.525481017418485</v>
       </c>
       <c r="H9">
-        <v>0.02386751653089458</v>
+        <v>0.02195436828954467</v>
       </c>
       <c r="I9">
-        <v>0.01576486621472295</v>
+        <v>0.01300438824079997</v>
       </c>
       <c r="J9">
-        <v>1.097516050524774</v>
+        <v>0.876416275929472</v>
       </c>
       <c r="K9">
-        <v>0.7992322867083388</v>
+        <v>0.5288226074639581</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2448644901679273</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1718417384329101</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.32676769326207</v>
+        <v>5.29240700536559</v>
       </c>
       <c r="C10">
-        <v>2.173602647654548</v>
+        <v>2.408120061256909</v>
       </c>
       <c r="D10">
-        <v>0.315210196925733</v>
+        <v>0.3133284851091673</v>
       </c>
       <c r="E10">
-        <v>2.011747114306971</v>
+        <v>1.988716499218185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.306769801652308</v>
+        <v>1.750552935228797</v>
       </c>
       <c r="H10">
-        <v>0.0351856657729348</v>
+        <v>0.03191845806484839</v>
       </c>
       <c r="I10">
-        <v>0.02687319491123397</v>
+        <v>0.02134604383409844</v>
       </c>
       <c r="J10">
-        <v>1.22811069373509</v>
+        <v>0.8979095613884454</v>
       </c>
       <c r="K10">
-        <v>0.8741836334477853</v>
+        <v>0.5452802196538542</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.235314594281185</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1989028280880234</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.695302759253593</v>
+        <v>5.656921919940771</v>
       </c>
       <c r="C11">
-        <v>2.230718671331488</v>
+        <v>2.41989371991167</v>
       </c>
       <c r="D11">
-        <v>0.3384963766740157</v>
+        <v>0.3363326425302375</v>
       </c>
       <c r="E11">
-        <v>1.315646155096744</v>
+        <v>1.295087527855642</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.980226884228387</v>
+        <v>1.550503423365626</v>
       </c>
       <c r="H11">
-        <v>0.05039100899320914</v>
+        <v>0.04711129627737165</v>
       </c>
       <c r="I11">
-        <v>0.02969354289664317</v>
+        <v>0.02356361176664645</v>
       </c>
       <c r="J11">
-        <v>1.057901888627811</v>
+        <v>0.6681829647835684</v>
       </c>
       <c r="K11">
-        <v>0.6985783789517654</v>
+        <v>0.4132186248563272</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1823089632446369</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1544387629338573</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.828066734430706</v>
+        <v>5.789748333191881</v>
       </c>
       <c r="C12">
-        <v>2.198845331423172</v>
+        <v>2.350903770071056</v>
       </c>
       <c r="D12">
-        <v>0.3469133408921437</v>
+        <v>0.3447099158807703</v>
       </c>
       <c r="E12">
-        <v>0.8104495408233134</v>
+        <v>0.7933656196091761</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.680706664681566</v>
+        <v>1.347088337806497</v>
       </c>
       <c r="H12">
-        <v>0.08553188707760739</v>
+        <v>0.08248366627364589</v>
       </c>
       <c r="I12">
-        <v>0.02946559390674697</v>
+        <v>0.02338810817345394</v>
       </c>
       <c r="J12">
-        <v>0.9053609137521903</v>
+        <v>0.5286019898758951</v>
       </c>
       <c r="K12">
-        <v>0.5593907272835139</v>
+        <v>0.3228635324294302</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1491431454173515</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1200664724183369</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.785549817281719</v>
+        <v>5.750711783325244</v>
       </c>
       <c r="C13">
-        <v>2.103943729828814</v>
+        <v>2.227350916301589</v>
       </c>
       <c r="D13">
-        <v>0.3442011898036981</v>
+        <v>0.3421680855697389</v>
       </c>
       <c r="E13">
-        <v>0.424307020280537</v>
+        <v>0.4112581869826144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.370947789418892</v>
+        <v>1.113847925885096</v>
       </c>
       <c r="H13">
-        <v>0.1373617925030715</v>
+        <v>0.1347394458748852</v>
       </c>
       <c r="I13">
-        <v>0.02712690255282002</v>
+        <v>0.02172724385959146</v>
       </c>
       <c r="J13">
-        <v>0.7504891688844566</v>
+        <v>0.447458518762744</v>
       </c>
       <c r="K13">
-        <v>0.4315157233652727</v>
+        <v>0.2530897687940481</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1257747495060606</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09016045414130147</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.676905200039585</v>
+        <v>5.645809709538071</v>
       </c>
       <c r="C14">
-        <v>2.011296127337687</v>
+        <v>2.118038504404581</v>
       </c>
       <c r="D14">
-        <v>0.3373077480644753</v>
+        <v>0.3354769602970862</v>
       </c>
       <c r="E14">
-        <v>0.2271599158947097</v>
+        <v>0.2168512193052621</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.152744170905606</v>
+        <v>0.9412109238378576</v>
       </c>
       <c r="H14">
-        <v>0.1839830064955805</v>
+        <v>0.181711544383603</v>
       </c>
       <c r="I14">
-        <v>0.02474816286534054</v>
+        <v>0.02006457763653291</v>
       </c>
       <c r="J14">
-        <v>0.6424543510351555</v>
+        <v>0.410503518340505</v>
       </c>
       <c r="K14">
-        <v>0.3488124329797486</v>
+        <v>0.2124961477895226</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1130378816797233</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07129781209636832</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.612954276525215</v>
+        <v>5.583466186076066</v>
       </c>
       <c r="C15">
-        <v>1.977175220238109</v>
+        <v>2.080999129893485</v>
       </c>
       <c r="D15">
-        <v>0.333262511860724</v>
+        <v>0.3315223999838111</v>
       </c>
       <c r="E15">
-        <v>0.1878648381336312</v>
+        <v>0.1783492030363547</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.092369202758647</v>
+        <v>0.890678048658927</v>
       </c>
       <c r="H15">
-        <v>0.1955484238215064</v>
+        <v>0.1934091216055549</v>
       </c>
       <c r="I15">
-        <v>0.02381397160306697</v>
+        <v>0.01945202280237179</v>
       </c>
       <c r="J15">
-        <v>0.6131649386193772</v>
+        <v>0.4078062136021714</v>
       </c>
       <c r="K15">
-        <v>0.3279386319462461</v>
+        <v>0.2038702204605585</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1106864562481178</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06664362288450931</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.255821202291145</v>
+        <v>5.232895420804255</v>
       </c>
       <c r="C16">
-        <v>1.853199798396702</v>
+        <v>1.966353704459607</v>
       </c>
       <c r="D16">
-        <v>0.3107796477229954</v>
+        <v>0.3094194263454</v>
       </c>
       <c r="E16">
-        <v>0.1797972643832466</v>
+        <v>0.1720402628058828</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.032591201832005</v>
+        <v>0.822048338676538</v>
       </c>
       <c r="H16">
-        <v>0.1793208090562075</v>
+        <v>0.1776686583993978</v>
       </c>
       <c r="I16">
-        <v>0.01964643105094765</v>
+        <v>0.01647833529201392</v>
       </c>
       <c r="J16">
-        <v>0.5902736869210656</v>
+        <v>0.468462300837416</v>
       </c>
       <c r="K16">
-        <v>0.3224540504984716</v>
+        <v>0.2171053368604703</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1186378534963772</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06624877753153058</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.040166769553707</v>
+        <v>5.02015171569002</v>
       </c>
       <c r="C17">
-        <v>1.807118925358566</v>
+        <v>1.933455778355324</v>
       </c>
       <c r="D17">
-        <v>0.2972906536205073</v>
+        <v>0.2961001676320762</v>
       </c>
       <c r="E17">
-        <v>0.2637150992443793</v>
+        <v>0.2561233316375393</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.098483462218127</v>
+        <v>0.8605446050768535</v>
       </c>
       <c r="H17">
-        <v>0.140203617907801</v>
+        <v>0.1387392048120688</v>
       </c>
       <c r="I17">
-        <v>0.01773835604731122</v>
+        <v>0.0150891806108957</v>
       </c>
       <c r="J17">
-        <v>0.6282172400544255</v>
+        <v>0.5310107436011862</v>
       </c>
       <c r="K17">
-        <v>0.3599609691462575</v>
+        <v>0.2480661123630483</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.131926315044069</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07505172699852736</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.921167014034211</v>
+        <v>4.9015884199938</v>
       </c>
       <c r="C18">
-        <v>1.819140402344885</v>
+        <v>1.968246879070932</v>
       </c>
       <c r="D18">
-        <v>0.2898737040474373</v>
+        <v>0.2887196168577049</v>
       </c>
       <c r="E18">
-        <v>0.5000431235280587</v>
+        <v>0.4912012807633275</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.29788296970122</v>
+        <v>1.002065200464202</v>
       </c>
       <c r="H18">
-        <v>0.08817872796176829</v>
+        <v>0.08667835073150343</v>
       </c>
       <c r="I18">
-        <v>0.01721502438230083</v>
+        <v>0.01458756166156672</v>
       </c>
       <c r="J18">
-        <v>0.7314864584177769</v>
+        <v>0.6226627583685485</v>
       </c>
       <c r="K18">
-        <v>0.4496736775030712</v>
+        <v>0.3074129753819044</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1550240019526079</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0961893976778434</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.888778455614727</v>
+        <v>4.867520096361034</v>
       </c>
       <c r="C19">
-        <v>1.886323478327142</v>
+        <v>2.065774312349788</v>
       </c>
       <c r="D19">
-        <v>0.2878573964769942</v>
+        <v>0.2866324534004576</v>
       </c>
       <c r="E19">
-        <v>0.9413158149948941</v>
+        <v>0.9296645874126881</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.596753957657114</v>
+        <v>1.217148340069372</v>
       </c>
       <c r="H19">
-        <v>0.04632902897709101</v>
+        <v>0.04456460672145823</v>
       </c>
       <c r="I19">
-        <v>0.01841474528832521</v>
+        <v>0.01550441596081331</v>
       </c>
       <c r="J19">
-        <v>0.8823597062651345</v>
+        <v>0.7374067588945366</v>
       </c>
       <c r="K19">
-        <v>0.5802736926716392</v>
+        <v>0.3886976779826199</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1854684960301292</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1271566080045581</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.102476995253085</v>
+        <v>5.072931527516459</v>
       </c>
       <c r="C20">
-        <v>2.094880414965473</v>
+        <v>2.326936190223648</v>
       </c>
       <c r="D20">
-        <v>0.3011601200674505</v>
+        <v>0.2995380180141609</v>
       </c>
       <c r="E20">
-        <v>1.941908297253391</v>
+        <v>1.921615785787196</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.194954886691932</v>
+        <v>1.654639157721988</v>
       </c>
       <c r="H20">
-        <v>0.03190618416992486</v>
+        <v>0.02908588391643585</v>
       </c>
       <c r="I20">
-        <v>0.02417198168109724</v>
+        <v>0.01972049104092299</v>
       </c>
       <c r="J20">
-        <v>1.176736639842062</v>
+        <v>0.9156300870434393</v>
       </c>
       <c r="K20">
-        <v>0.8354032197368824</v>
+        <v>0.5346493983765797</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2355603595784217</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1891091983181781</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.761014809441974</v>
+        <v>5.71532522321354</v>
       </c>
       <c r="C21">
-        <v>2.381331817493049</v>
+        <v>2.607910355721629</v>
       </c>
       <c r="D21">
-        <v>0.3426426730514152</v>
+        <v>0.3401388515254524</v>
       </c>
       <c r="E21">
-        <v>2.296037835363691</v>
+        <v>2.265624703282299</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.517013075941975</v>
+        <v>1.957630049214458</v>
       </c>
       <c r="H21">
-        <v>0.0431784871336065</v>
+        <v>0.0387607877010252</v>
       </c>
       <c r="I21">
-        <v>0.03459154333805881</v>
+        <v>0.02703182812426963</v>
       </c>
       <c r="J21">
-        <v>1.323888641900993</v>
+        <v>0.7839955134713534</v>
       </c>
       <c r="K21">
-        <v>0.9363870953132079</v>
+        <v>0.5400525292381317</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2257326340708019</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2079622123858016</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.193757860364656</v>
+        <v>6.136260872847288</v>
       </c>
       <c r="C22">
-        <v>2.559611132893281</v>
+        <v>2.776844672936363</v>
       </c>
       <c r="D22">
-        <v>0.3702226509747533</v>
+        <v>0.3670537803100302</v>
       </c>
       <c r="E22">
-        <v>2.477297454851367</v>
+        <v>2.439895542220498</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.716901799761104</v>
+        <v>2.156543990445527</v>
       </c>
       <c r="H22">
-        <v>0.05078807317528877</v>
+        <v>0.04520818933764836</v>
       </c>
       <c r="I22">
-        <v>0.04200014386205808</v>
+        <v>0.0320076084356824</v>
       </c>
       <c r="J22">
-        <v>1.41486467485359</v>
+        <v>0.6904981602983185</v>
       </c>
       <c r="K22">
-        <v>0.9986389163161817</v>
+        <v>0.5389791726384061</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2177551302659211</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2188743774614039</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.962798295623145</v>
+        <v>5.911942423223763</v>
       </c>
       <c r="C23">
-        <v>2.459052929430072</v>
+        <v>2.686908805077223</v>
       </c>
       <c r="D23">
-        <v>0.3554657074519554</v>
+        <v>0.3526753057099796</v>
       </c>
       <c r="E23">
-        <v>2.380464350777174</v>
+        <v>2.347021070353648</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.621698265001896</v>
+        <v>2.049912453797987</v>
       </c>
       <c r="H23">
-        <v>0.04668370182135728</v>
+        <v>0.04176223011799518</v>
       </c>
       <c r="I23">
-        <v>0.03776958197051261</v>
+        <v>0.02907309725809615</v>
       </c>
       <c r="J23">
-        <v>1.37209270652761</v>
+        <v>0.7660406828854605</v>
       </c>
       <c r="K23">
-        <v>0.9721299750982837</v>
+        <v>0.5484186031474891</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2250535733099426</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2166528862490935</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093955041718061</v>
+        <v>5.064119903489882</v>
       </c>
       <c r="C24">
-        <v>2.092373481925051</v>
+        <v>2.328339165816772</v>
       </c>
       <c r="D24">
-        <v>0.300615139906995</v>
+        <v>0.2989826668348599</v>
       </c>
       <c r="E24">
-        <v>2.01902110525468</v>
+        <v>1.998165260617071</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.250033385172287</v>
+        <v>1.694083509232655</v>
       </c>
       <c r="H24">
-        <v>0.03254154869434878</v>
+        <v>0.02966202079373392</v>
       </c>
       <c r="I24">
-        <v>0.02398011322701432</v>
+        <v>0.01936352349856563</v>
       </c>
       <c r="J24">
-        <v>1.204443277205996</v>
+        <v>0.9375820888639907</v>
       </c>
       <c r="K24">
-        <v>0.863562098013027</v>
+        <v>0.5529282835259792</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2423742725821185</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1960791506635289</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.167079443840635</v>
+        <v>4.152510908075158</v>
       </c>
       <c r="C25">
-        <v>1.706495024326273</v>
+        <v>1.894135231017856</v>
       </c>
       <c r="D25">
-        <v>0.2432788829311505</v>
+        <v>0.242429037037283</v>
       </c>
       <c r="E25">
-        <v>1.638579449759419</v>
+        <v>1.626782525302943</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.86369512075899</v>
+        <v>1.417835789156726</v>
       </c>
       <c r="H25">
-        <v>0.01987189383075316</v>
+        <v>0.0184005880184932</v>
       </c>
       <c r="I25">
-        <v>0.01262034709734472</v>
+        <v>0.01079354200528559</v>
       </c>
       <c r="J25">
-        <v>1.030892181379215</v>
+        <v>0.8473813472462268</v>
       </c>
       <c r="K25">
-        <v>0.7519079288432948</v>
+        <v>0.5085915090228923</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2428967759182683</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1572010070318157</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
